--- a/searches/lit_review.xlsx
+++ b/searches/lit_review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
-  <si>
-    <t>Keyword combination</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Index</t>
   </si>
   <si>
-    <t>PubMed</t>
-  </si>
-  <si>
-    <t>WebOfScience</t>
-  </si>
-  <si>
     <t>( "movie" OR "film" OR "motion pictures" ) AND ( "brain imaging" OR "neural activity" )</t>
   </si>
   <si>
@@ -88,13 +79,167 @@
   </si>
   <si>
     <t>( "movie" OR "film" OR "motion pictures" ) AND ( "brain imaging" OR "brain activity" OR "neuronal activity" OR "neural activity" ) AND (“MEG” OR "magnetoencephalography" OR "magnetoencephalogram" OR “EEG” OR "electroencephalography" OR "electroencephalogram" OR “fMRI” OR "functional magnetic resonance imaging" OR "functional MRI" OR “MRI” OR "magnetic resonance imaging")</t>
+  </si>
+  <si>
+    <t>PROBLEM: PubMed results show highlighted single words in two-words associations (e.g. "brain" could be highlighted while searching for "brain activity") implying that two words in quotation marks are treated as separate and not joint. This is however false, after reviewing several examples of such occurences, the correct keywords always appear in either title, abstract or keywords.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WebOfScience 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Topic: Title/Abstract/Keywords)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PubMed 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>([Title/Abstract]: Title, Abstract, Keywords)</t>
+    </r>
+  </si>
+  <si>
+    <t>( "movie" OR "film" OR "motion pictures" ) AND ( "brain imaging" OR "brain activity" OR "neuronal activity" OR "neural activity" ) AND ("EEG" OR "electroencephalography" OR "electroencephalogram" OR "MEG" OR "magnetoencephalography" OR "magnetoencephalogram")</t>
+  </si>
+  <si>
+    <t>Follow-up of query 6 with addition of refined keywords for activity from query 11</t>
+  </si>
+  <si>
+    <t>( "movie" OR "film" OR "motion pictures" ) AND ("EEG" OR "electroencephalography" OR "electroencephalogram" OR "MEG" OR "magnetoencephalography" OR "magnetoencephalogram")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WebOfScience 
+CORE COLLECTION
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Topic: Title/Abstract/Keywords)</t>
+    </r>
+  </si>
+  <si>
+    <t>Queries</t>
+  </si>
+  <si>
+    <t>18/10/2023</t>
+  </si>
+  <si>
+    <t>looking for total number of EEG/MEG studies done on films. Looking for new keywords related to EEG equivalent to imaging. E.g.  "Neural Envelope".</t>
+  </si>
+  <si>
+    <t>"neurocinematics"</t>
+  </si>
+  <si>
+    <t>New keyword for a category of neural recordings specifically on movie watching</t>
+  </si>
+  <si>
+    <t>( "movie" OR "film" OR "motion pictures" ) AND (“fMRI” OR "functional magnetic resonance imaging" OR "functional MRI" OR “MRI” OR "magnetic resonance imaging")</t>
+  </si>
+  <si>
+    <t>( "movie" OR "motion pictures" ) AND (“fMRI” OR "functional magnetic resonance imaging" OR "functional MRI" OR “MRI” OR "magnetic resonance imaging")</t>
+  </si>
+  <si>
+    <t>Same as query 15 without "film". We loose 3/4 of the results</t>
+  </si>
+  <si>
+    <t>( "movie" OR "film" OR "motion pictures" ) AND ("EEG" OR "electroencephalography" OR "electroencephalogram" OR "MEG" OR "magnetoencephalography" OR "magnetoencephalogram") NOT ("gel" OR "cellulose")</t>
+  </si>
+  <si>
+    <t>"Film" gives unrelated results, thus refining the use of the word in context</t>
+  </si>
+  <si>
+    <t>( "movie" OR "film watching" OR "film viewing" OR "motion pictures" OR "motion picture" OR "watching a film" OR "viewing a film") AND ( "brain imaging" OR "neural activity" OR “MEG” OR “EEG” OR “fMRI” OR “MRI”)</t>
+  </si>
+  <si>
+    <t>("movie" OR "film watching" OR "film viewing" OR "motion pictures" OR "motion picture" OR "watching a film" OR "viewing a film") AND ( "brain imaging" OR "brain activity" OR "neuronal activity" OR "neural activity" ) AND (“MEG” OR "magnetoencephalography" OR "magnetoencephalogram" OR “EEG” OR "electroencephalography" OR "electroencephalogram" OR “fMRI” OR "functional magnetic resonance imaging" OR "functional MRI" OR “MRI” OR "magnetic resonance imaging")</t>
+  </si>
+  <si>
+    <t>( "movie" OR "film watching" OR "film viewing" OR "motion pictures" OR "motion picture") AND ( "brain imaging" OR "neural activity" OR “MEG” OR “EEG” OR “fMRI” OR “MRI”)</t>
+  </si>
+  <si>
+    <t>( "movie" OR "film watching" OR "film viewing" OR "motion pictures" OR "motion picture" OR "watching a film") AND ( "brain imaging" OR "neural activity" OR “MEG” OR “EEG” OR “fMRI” OR “MRI”)</t>
+  </si>
+  <si>
+    <t>Most probably the total number of related articles to our topic.</t>
+  </si>
+  <si>
+    <t>("movie" OR "film watching" OR "film viewing" OR "motion pictures" OR "motion picture" OR "watching a film" OR "viewing a film") AND ( "brain imaging" OR "brain activity" OR "neuronal activity" OR "neural activity" OR "envelope recording") AND (“MEG” OR "magnetoencephalography" OR "magnetoencephalogram" OR “EEG” OR "electroencephalography" OR "electroencephalogram" OR “fMRI” OR "functional magnetic resonance imaging" OR "functional MRI" OR “MRI” OR "magnetic resonance imaging")</t>
+  </si>
+  <si>
+    <t>added "evelope recording"</t>
+  </si>
+  <si>
+    <t>("movie" OR "film watching" OR "film viewing" OR "motion pictures" OR "motion picture" OR "watching a film" OR "viewing a film") AND ( "brain imaging" OR "brain activity" OR "neuronal activity" OR "neural activity" OR "envelope") AND (“MEG” OR "magnetoencephalography" OR "magnetoencephalogram" OR “EEG” OR "electroencephalography" OR "electroencephalogram" OR “fMRI” OR "functional magnetic resonance imaging" OR "functional MRI" OR “MRI” OR "magnetic resonance imaging")</t>
+  </si>
+  <si>
+    <t>("movie" OR "film watching" OR "film viewing" OR "motion pictures" OR "motion picture" OR "watching a film" OR "viewing a film" OR "film clip" OR "film clips") AND ( "brain imaging" OR "brain activity" OR "neuronal activity" OR "neural activity" OR "envelope") AND (“MEG” OR "magnetoencephalography" OR "magnetoencephalogram" OR “EEG” OR "electroencephalography" OR "electroencephalogram" OR “fMRI” OR "functional magnetic resonance imaging" OR "functional MRI" OR “MRI” OR "magnetic resonance imaging")</t>
+  </si>
+  <si>
+    <t>Also added "film clip(s)" that I saw used in some cases. Some relevent articles also don't use any keywords related to the imaging category we use (see https://doi.org/10.1111/psyp.14446)</t>
+  </si>
+  <si>
+    <t>("movie" OR "film watching" OR "film viewing" OR "motion pictures" OR "motion picture" OR "watching a film" OR "viewing a film" OR "film clip" OR "film clips") AND ( "brain imaging" OR "brain activity" OR "neuronal activity" OR "neural activity" OR "envelope" OR “MEG” OR "magnetoencephalography" OR "magnetoencephalogram" OR “EEG” OR "electroencephalography" OR "electroencephalogram" OR “fMRI” OR "functional magnetic resonance imaging" OR "functional MRI" OR “MRI” OR "magnetic resonance imaging")</t>
+  </si>
+  <si>
+    <t>1984 (topic search, not exported)
+1196 (Abstract + title only, exported)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do we want ALL papers that have a recording while movie watching component?  PROBLEM: keyword plus in WoS is returning its own assessed keywords that can be inexact sometimes (e.g. returning keyword "movie" for a study on music data that evokes movie-related studies in intro and conclusion). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>We need to use title+abstract search in WoS rather than topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +270,19 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +307,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -164,6 +321,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,55 +605,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="26" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:8" ht="97.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="62.25" customHeight="1">
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="62.25" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>159</v>
@@ -502,32 +666,32 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="108">
+    <row r="3" spans="1:8" ht="108">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="54">
+    <row r="4" spans="1:8" ht="54">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1698</v>
@@ -536,15 +700,15 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="54">
+    <row r="5" spans="1:8" ht="54">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -553,15 +717,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="121.5">
+    <row r="6" spans="1:8" ht="121.5">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -570,15 +734,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="94.5">
+    <row r="7" spans="1:8" ht="94.5">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D7">
         <v>22</v>
@@ -587,15 +751,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="180">
+    <row r="8" spans="1:8" ht="180">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D8">
         <v>65</v>
@@ -603,22 +767,22 @@
       <c r="E8">
         <v>130</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="4">
         <v>119</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="121.5">
+      <c r="H8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="121.5">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D9">
         <v>49</v>
@@ -626,19 +790,19 @@
       <c r="E9">
         <v>89</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="54">
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D10">
         <v>355</v>
@@ -646,19 +810,19 @@
       <c r="E10">
         <v>718</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="67.5">
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="67.5">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D11">
         <v>177</v>
@@ -666,123 +830,301 @@
       <c r="E11">
         <v>340</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="148.5">
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="240">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="E12">
         <v>387</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="108">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>58</v>
+      </c>
+      <c r="E13">
+        <v>134</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="90">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>329</v>
+      </c>
+      <c r="E14">
+        <v>1257</v>
+      </c>
+      <c r="F14">
+        <v>598</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="54">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>1757</v>
+      </c>
+      <c r="E16">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="54">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>441</v>
+      </c>
+      <c r="E17">
+        <v>1027</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="81">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>325</v>
+      </c>
+      <c r="E18">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="67.5">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>575</v>
+      </c>
+      <c r="E19">
+        <v>1290</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="67.5">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>575</v>
+      </c>
+      <c r="E20">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="81">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>575</v>
+      </c>
+      <c r="E21">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="175.5">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>152</v>
+      </c>
+      <c r="E22">
+        <v>289</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="189">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>152</v>
+      </c>
+      <c r="E23">
+        <v>290</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="175.5">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>157</v>
+      </c>
+      <c r="E24">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="189">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="C25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>172</v>
+      </c>
+      <c r="E25">
+        <v>318</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="225">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <v>742</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
